--- a/data/output/FV2410_FV2404/UTILMD/55168.xlsx
+++ b/data/output/FV2410_FV2404/UTILMD/55168.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21446" uniqueCount="1170">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21467" uniqueCount="1170">
+  <si>
+    <t>Segmentname_FV2404</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2404</t>
+  </si>
+  <si>
+    <t>Segment_FV2404</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2404</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2404</t>
+  </si>
+  <si>
+    <t>Code_FV2404</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2404</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2404</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -3698,6 +3698,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U925" totalsRowShown="0">
+  <autoFilter ref="A1:U925"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2404"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2404"/>
+    <tableColumn id="3" name="Segment_FV2404"/>
+    <tableColumn id="4" name="Datenelement_FV2404"/>
+    <tableColumn id="5" name="Segment ID_FV2404"/>
+    <tableColumn id="6" name="Code_FV2404"/>
+    <tableColumn id="7" name="Qualifier_FV2404"/>
+    <tableColumn id="8" name="Beschreibung_FV2404"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2404"/>
+    <tableColumn id="10" name="Bedingung_FV2404"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2410"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="14" name="Segment_FV2410"/>
+    <tableColumn id="15" name="Datenelement_FV2410"/>
+    <tableColumn id="16" name="Segment ID_FV2410"/>
+    <tableColumn id="17" name="Code_FV2410"/>
+    <tableColumn id="18" name="Qualifier_FV2410"/>
+    <tableColumn id="19" name="Beschreibung_FV2410"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="21" name="Bedingung_FV2410"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3987,7 +4017,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U925"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -49257,5 +49290,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2410_FV2404/UTILMD/55168.xlsx
+++ b/data/output/FV2410_FV2404/UTILMD/55168.xlsx
@@ -6885,7 +6885,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -7247,7 +7247,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -7447,7 +7447,7 @@
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="4"/>
-      <c r="M13" s="2" t="s">
+      <c r="M13" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N13" s="2"/>
@@ -7649,7 +7649,7 @@
       </c>
       <c r="K17" s="2"/>
       <c r="L17" s="4"/>
-      <c r="M17" s="2" t="s">
+      <c r="M17" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N17" s="2" t="s">
@@ -7957,7 +7957,7 @@
       </c>
       <c r="K23" s="2"/>
       <c r="L23" s="4"/>
-      <c r="M23" s="2" t="s">
+      <c r="M23" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N23" s="2" t="s">
@@ -8157,7 +8157,7 @@
       </c>
       <c r="K27" s="2"/>
       <c r="L27" s="4"/>
-      <c r="M27" s="2" t="s">
+      <c r="M27" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N27" s="2" t="s">
@@ -8531,7 +8531,7 @@
       </c>
       <c r="K34" s="2"/>
       <c r="L34" s="4"/>
-      <c r="M34" s="2" t="s">
+      <c r="M34" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N34" s="2" t="s">
@@ -8839,7 +8839,7 @@
       </c>
       <c r="K40" s="2"/>
       <c r="L40" s="4"/>
-      <c r="M40" s="2" t="s">
+      <c r="M40" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N40" s="2" t="s">
@@ -9039,7 +9039,7 @@
       </c>
       <c r="K44" s="2"/>
       <c r="L44" s="4"/>
-      <c r="M44" s="2" t="s">
+      <c r="M44" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N44" s="2" t="s">
@@ -9257,7 +9257,7 @@
         <v>1059</v>
       </c>
       <c r="L48" s="4"/>
-      <c r="M48" s="2" t="s">
+      <c r="M48" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N48" s="2" t="s">
@@ -9527,7 +9527,7 @@
         <v>1060</v>
       </c>
       <c r="L53" s="4"/>
-      <c r="M53" s="2" t="s">
+      <c r="M53" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N53" s="2" t="s">
@@ -9731,7 +9731,7 @@
         <v>1062</v>
       </c>
       <c r="L57" s="4"/>
-      <c r="M57" s="2" t="s">
+      <c r="M57" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N57" s="2" t="s">
@@ -9935,7 +9935,7 @@
         <v>1064</v>
       </c>
       <c r="L61" s="4"/>
-      <c r="M61" s="2" t="s">
+      <c r="M61" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N61" s="2" t="s">
@@ -10139,7 +10139,7 @@
         <v>1066</v>
       </c>
       <c r="L65" s="4"/>
-      <c r="M65" s="2" t="s">
+      <c r="M65" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N65" s="2" t="s">
@@ -10343,7 +10343,7 @@
         <v>1068</v>
       </c>
       <c r="L69" s="4"/>
-      <c r="M69" s="2" t="s">
+      <c r="M69" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N69" s="2" t="s">
@@ -10547,7 +10547,7 @@
         <v>1069</v>
       </c>
       <c r="L73" s="4"/>
-      <c r="M73" s="2" t="s">
+      <c r="M73" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N73" s="2" t="s">
@@ -10749,7 +10749,7 @@
       </c>
       <c r="K77" s="2"/>
       <c r="L77" s="4"/>
-      <c r="M77" s="2" t="s">
+      <c r="M77" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N77" s="2" t="s">
@@ -10949,7 +10949,7 @@
       </c>
       <c r="K81" s="2"/>
       <c r="L81" s="4"/>
-      <c r="M81" s="2" t="s">
+      <c r="M81" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N81" s="2" t="s">
@@ -11159,7 +11159,7 @@
         <v>1072</v>
       </c>
       <c r="L85" s="4"/>
-      <c r="M85" s="2" t="s">
+      <c r="M85" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N85" s="2" t="s">
@@ -11429,7 +11429,7 @@
         <v>1073</v>
       </c>
       <c r="L90" s="4"/>
-      <c r="M90" s="2" t="s">
+      <c r="M90" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N90" s="2" t="s">
@@ -11849,7 +11849,7 @@
         <v>1076</v>
       </c>
       <c r="L98" s="4"/>
-      <c r="M98" s="2" t="s">
+      <c r="M98" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N98" s="2" t="s">
@@ -11997,7 +11997,7 @@
       </c>
       <c r="K101" s="2"/>
       <c r="L101" s="4"/>
-      <c r="M101" s="2" t="s">
+      <c r="M101" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N101" s="2" t="s">
@@ -12323,7 +12323,7 @@
         <v>1078</v>
       </c>
       <c r="L107" s="4"/>
-      <c r="M107" s="2" t="s">
+      <c r="M107" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N107" s="2" t="s">
@@ -12517,54 +12517,54 @@
       </c>
     </row>
     <row r="111" spans="1:22">
-      <c r="A111" s="5" t="s">
+      <c r="A111" s="2" t="s">
         <v>1270</v>
       </c>
-      <c r="B111" s="5" t="s">
+      <c r="B111" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C111" s="5" t="s">
+      <c r="C111" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="D111" s="5" t="s">
+      <c r="D111" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="E111" s="5"/>
-      <c r="F111" s="5" t="s">
+      <c r="E111" s="2"/>
+      <c r="F111" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="G111" s="5"/>
-      <c r="H111" s="5"/>
-      <c r="I111" s="5"/>
+      <c r="G111" s="2"/>
+      <c r="H111" s="2"/>
+      <c r="I111" s="2"/>
       <c r="J111" s="6" t="s">
         <v>943</v>
       </c>
-      <c r="K111" s="5" t="s">
+      <c r="K111" s="2" t="s">
         <v>1079</v>
       </c>
       <c r="L111" s="7" t="s">
         <v>1170</v>
       </c>
-      <c r="M111" s="5" t="s">
+      <c r="M111" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="N111" s="5" t="s">
+      <c r="N111" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="O111" s="5" t="s">
+      <c r="O111" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="P111" s="5"/>
-      <c r="Q111" s="5" t="s">
+      <c r="P111" s="2"/>
+      <c r="Q111" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="R111" s="5"/>
-      <c r="S111" s="5"/>
-      <c r="T111" s="5"/>
+      <c r="R111" s="2"/>
+      <c r="S111" s="2"/>
+      <c r="T111" s="2"/>
       <c r="U111" s="6" t="s">
         <v>1171</v>
       </c>
-      <c r="V111" s="5" t="s">
+      <c r="V111" s="2" t="s">
         <v>1079</v>
       </c>
     </row>
@@ -12765,7 +12765,7 @@
         <v>1081</v>
       </c>
       <c r="L115" s="4"/>
-      <c r="M115" s="2" t="s">
+      <c r="M115" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N115" s="2" t="s">
@@ -12927,7 +12927,7 @@
         <v>1082</v>
       </c>
       <c r="L118" s="4"/>
-      <c r="M118" s="2" t="s">
+      <c r="M118" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N118" s="2" t="s">
@@ -13075,7 +13075,7 @@
       </c>
       <c r="K121" s="2"/>
       <c r="L121" s="4"/>
-      <c r="M121" s="2" t="s">
+      <c r="M121" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N121" s="2" t="s">
@@ -13233,7 +13233,7 @@
       </c>
       <c r="K124" s="2"/>
       <c r="L124" s="4"/>
-      <c r="M124" s="2" t="s">
+      <c r="M124" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N124" s="2" t="s">
@@ -13487,7 +13487,7 @@
       </c>
       <c r="K129" s="2"/>
       <c r="L129" s="4"/>
-      <c r="M129" s="2" t="s">
+      <c r="M129" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N129" s="2" t="s">
@@ -13633,7 +13633,7 @@
       </c>
       <c r="K132" s="2"/>
       <c r="L132" s="4"/>
-      <c r="M132" s="2" t="s">
+      <c r="M132" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N132" s="2" t="s">
@@ -13955,7 +13955,7 @@
         <v>1083</v>
       </c>
       <c r="L138" s="4"/>
-      <c r="M138" s="2" t="s">
+      <c r="M138" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N138" s="2" t="s">
@@ -14103,7 +14103,7 @@
       </c>
       <c r="K141" s="2"/>
       <c r="L141" s="4"/>
-      <c r="M141" s="2" t="s">
+      <c r="M141" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N141" s="2" t="s">
@@ -14265,7 +14265,7 @@
       </c>
       <c r="K144" s="2"/>
       <c r="L144" s="4"/>
-      <c r="M144" s="2" t="s">
+      <c r="M144" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N144" s="2" t="s">
@@ -14477,7 +14477,7 @@
       </c>
       <c r="K148" s="2"/>
       <c r="L148" s="4"/>
-      <c r="M148" s="2" t="s">
+      <c r="M148" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N148" s="2" t="s">
@@ -14623,7 +14623,7 @@
       </c>
       <c r="K151" s="2"/>
       <c r="L151" s="4"/>
-      <c r="M151" s="2" t="s">
+      <c r="M151" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N151" s="2" t="s">
@@ -14723,7 +14723,7 @@
       </c>
       <c r="K153" s="2"/>
       <c r="L153" s="4"/>
-      <c r="M153" s="2" t="s">
+      <c r="M153" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N153" s="2" t="s">
@@ -14869,7 +14869,7 @@
       </c>
       <c r="K156" s="2"/>
       <c r="L156" s="4"/>
-      <c r="M156" s="2" t="s">
+      <c r="M156" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N156" s="2" t="s">
@@ -15025,7 +15025,7 @@
         <v>1083</v>
       </c>
       <c r="L159" s="4"/>
-      <c r="M159" s="2" t="s">
+      <c r="M159" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N159" s="2" t="s">
@@ -15173,7 +15173,7 @@
       </c>
       <c r="K162" s="2"/>
       <c r="L162" s="4"/>
-      <c r="M162" s="2" t="s">
+      <c r="M162" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N162" s="2" t="s">
@@ -15335,7 +15335,7 @@
       </c>
       <c r="K165" s="2"/>
       <c r="L165" s="4"/>
-      <c r="M165" s="2" t="s">
+      <c r="M165" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N165" s="2" t="s">
@@ -15553,7 +15553,7 @@
         <v>1085</v>
       </c>
       <c r="L169" s="4"/>
-      <c r="M169" s="2" t="s">
+      <c r="M169" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N169" s="2" t="s">
@@ -15751,7 +15751,7 @@
       </c>
       <c r="K173" s="2"/>
       <c r="L173" s="4"/>
-      <c r="M173" s="2" t="s">
+      <c r="M173" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N173" s="2" t="s">
@@ -16105,7 +16105,7 @@
       </c>
       <c r="K180" s="2"/>
       <c r="L180" s="4"/>
-      <c r="M180" s="2" t="s">
+      <c r="M180" s="3" t="s">
         <v>60</v>
       </c>
       <c r="N180" s="2" t="s">
@@ -16303,7 +16303,7 @@
         <v>1086</v>
       </c>
       <c r="L184" s="4"/>
-      <c r="M184" s="2" t="s">
+      <c r="M184" s="3" t="s">
         <v>61</v>
       </c>
       <c r="N184" s="2" t="s">
@@ -16451,7 +16451,7 @@
       </c>
       <c r="K187" s="2"/>
       <c r="L187" s="4"/>
-      <c r="M187" s="2" t="s">
+      <c r="M187" s="3" t="s">
         <v>62</v>
       </c>
       <c r="N187" s="2" t="s">
@@ -16611,7 +16611,7 @@
         <v>1087</v>
       </c>
       <c r="L190" s="4"/>
-      <c r="M190" s="2" t="s">
+      <c r="M190" s="3" t="s">
         <v>63</v>
       </c>
       <c r="N190" s="2" t="s">
@@ -16985,7 +16985,7 @@
         <v>1090</v>
       </c>
       <c r="L197" s="4"/>
-      <c r="M197" s="2" t="s">
+      <c r="M197" s="3" t="s">
         <v>64</v>
       </c>
       <c r="N197" s="2" t="s">
@@ -17245,7 +17245,7 @@
       </c>
       <c r="K202" s="2"/>
       <c r="L202" s="4"/>
-      <c r="M202" s="2" t="s">
+      <c r="M202" s="3" t="s">
         <v>65</v>
       </c>
       <c r="N202" s="2" t="s">
@@ -17499,7 +17499,7 @@
       </c>
       <c r="K207" s="2"/>
       <c r="L207" s="4"/>
-      <c r="M207" s="2" t="s">
+      <c r="M207" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N207" s="2" t="s">
@@ -17647,7 +17647,7 @@
         <v>1092</v>
       </c>
       <c r="L210" s="4"/>
-      <c r="M210" s="2" t="s">
+      <c r="M210" s="3" t="s">
         <v>66</v>
       </c>
       <c r="N210" s="2" t="s">
@@ -17811,7 +17811,7 @@
       </c>
       <c r="K213" s="2"/>
       <c r="L213" s="4"/>
-      <c r="M213" s="2" t="s">
+      <c r="M213" s="3" t="s">
         <v>67</v>
       </c>
       <c r="N213" s="2" t="s">
@@ -17969,7 +17969,7 @@
       </c>
       <c r="K216" s="2"/>
       <c r="L216" s="4"/>
-      <c r="M216" s="2" t="s">
+      <c r="M216" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N216" s="2" t="s">
@@ -18405,7 +18405,7 @@
       </c>
       <c r="K224" s="2"/>
       <c r="L224" s="4"/>
-      <c r="M224" s="2" t="s">
+      <c r="M224" s="3" t="s">
         <v>68</v>
       </c>
       <c r="N224" s="2" t="s">
@@ -18813,7 +18813,7 @@
       </c>
       <c r="K232" s="2"/>
       <c r="L232" s="4"/>
-      <c r="M232" s="2" t="s">
+      <c r="M232" s="3" t="s">
         <v>69</v>
       </c>
       <c r="N232" s="2" t="s">
@@ -19113,7 +19113,7 @@
       </c>
       <c r="K238" s="2"/>
       <c r="L238" s="4"/>
-      <c r="M238" s="2" t="s">
+      <c r="M238" s="3" t="s">
         <v>70</v>
       </c>
       <c r="N238" s="2" t="s">
@@ -19367,7 +19367,7 @@
       </c>
       <c r="K243" s="2"/>
       <c r="L243" s="4"/>
-      <c r="M243" s="2" t="s">
+      <c r="M243" s="3" t="s">
         <v>71</v>
       </c>
       <c r="N243" s="2" t="s">
@@ -19569,7 +19569,7 @@
         <v>1095</v>
       </c>
       <c r="L247" s="4"/>
-      <c r="M247" s="2" t="s">
+      <c r="M247" s="3" t="s">
         <v>72</v>
       </c>
       <c r="N247" s="2" t="s">
@@ -19781,7 +19781,7 @@
         <v>1096</v>
       </c>
       <c r="L251" s="4"/>
-      <c r="M251" s="2" t="s">
+      <c r="M251" s="3" t="s">
         <v>73</v>
       </c>
       <c r="N251" s="2" t="s">
@@ -19929,7 +19929,7 @@
       </c>
       <c r="K254" s="2"/>
       <c r="L254" s="4"/>
-      <c r="M254" s="2" t="s">
+      <c r="M254" s="3" t="s">
         <v>74</v>
       </c>
       <c r="N254" s="2" t="s">
@@ -20247,7 +20247,7 @@
         <v>1097</v>
       </c>
       <c r="L260" s="4"/>
-      <c r="M260" s="2" t="s">
+      <c r="M260" s="3" t="s">
         <v>75</v>
       </c>
       <c r="N260" s="2" t="s">
@@ -20505,7 +20505,7 @@
         <v>1098</v>
       </c>
       <c r="L265" s="4"/>
-      <c r="M265" s="2" t="s">
+      <c r="M265" s="3" t="s">
         <v>76</v>
       </c>
       <c r="N265" s="2" t="s">
@@ -20653,7 +20653,7 @@
       </c>
       <c r="K268" s="2"/>
       <c r="L268" s="4"/>
-      <c r="M268" s="2" t="s">
+      <c r="M268" s="3" t="s">
         <v>62</v>
       </c>
       <c r="N268" s="2" t="s">
@@ -20815,7 +20815,7 @@
       </c>
       <c r="K271" s="2"/>
       <c r="L271" s="4"/>
-      <c r="M271" s="2" t="s">
+      <c r="M271" s="3" t="s">
         <v>76</v>
       </c>
       <c r="N271" s="2" t="s">
@@ -21033,7 +21033,7 @@
         <v>1100</v>
       </c>
       <c r="L275" s="4"/>
-      <c r="M275" s="2" t="s">
+      <c r="M275" s="3" t="s">
         <v>77</v>
       </c>
       <c r="N275" s="2" t="s">
@@ -21293,7 +21293,7 @@
       </c>
       <c r="K280" s="2"/>
       <c r="L280" s="4"/>
-      <c r="M280" s="2" t="s">
+      <c r="M280" s="3" t="s">
         <v>78</v>
       </c>
       <c r="N280" s="2" t="s">
@@ -21439,7 +21439,7 @@
       </c>
       <c r="K283" s="2"/>
       <c r="L283" s="4"/>
-      <c r="M283" s="2" t="s">
+      <c r="M283" s="3" t="s">
         <v>79</v>
       </c>
       <c r="N283" s="2" t="s">
@@ -21809,7 +21809,7 @@
       </c>
       <c r="K290" s="2"/>
       <c r="L290" s="4"/>
-      <c r="M290" s="2" t="s">
+      <c r="M290" s="3" t="s">
         <v>80</v>
       </c>
       <c r="N290" s="2" t="s">
@@ -21955,7 +21955,7 @@
       </c>
       <c r="K293" s="2"/>
       <c r="L293" s="4"/>
-      <c r="M293" s="2" t="s">
+      <c r="M293" s="3" t="s">
         <v>79</v>
       </c>
       <c r="N293" s="2" t="s">
@@ -22327,7 +22327,7 @@
         <v>1103</v>
       </c>
       <c r="L300" s="4"/>
-      <c r="M300" s="2" t="s">
+      <c r="M300" s="3" t="s">
         <v>81</v>
       </c>
       <c r="N300" s="2" t="s">
@@ -22475,7 +22475,7 @@
       </c>
       <c r="K303" s="2"/>
       <c r="L303" s="4"/>
-      <c r="M303" s="2" t="s">
+      <c r="M303" s="3" t="s">
         <v>79</v>
       </c>
       <c r="N303" s="2" t="s">
@@ -22631,7 +22631,7 @@
         <v>1104</v>
       </c>
       <c r="L306" s="4"/>
-      <c r="M306" s="2" t="s">
+      <c r="M306" s="3" t="s">
         <v>82</v>
       </c>
       <c r="N306" s="2" t="s">
@@ -22779,7 +22779,7 @@
       </c>
       <c r="K309" s="2"/>
       <c r="L309" s="4"/>
-      <c r="M309" s="2" t="s">
+      <c r="M309" s="3" t="s">
         <v>62</v>
       </c>
       <c r="N309" s="2" t="s">
@@ -22941,7 +22941,7 @@
       </c>
       <c r="K312" s="2"/>
       <c r="L312" s="4"/>
-      <c r="M312" s="2" t="s">
+      <c r="M312" s="3" t="s">
         <v>83</v>
       </c>
       <c r="N312" s="2" t="s">
@@ -23159,7 +23159,7 @@
         <v>1106</v>
       </c>
       <c r="L316" s="4"/>
-      <c r="M316" s="2" t="s">
+      <c r="M316" s="3" t="s">
         <v>84</v>
       </c>
       <c r="N316" s="2" t="s">
@@ -23571,7 +23571,7 @@
         <v>1107</v>
       </c>
       <c r="L324" s="4"/>
-      <c r="M324" s="2" t="s">
+      <c r="M324" s="3" t="s">
         <v>77</v>
       </c>
       <c r="N324" s="2" t="s">
@@ -23771,7 +23771,7 @@
         <v>1108</v>
       </c>
       <c r="L328" s="4"/>
-      <c r="M328" s="2" t="s">
+      <c r="M328" s="3" t="s">
         <v>85</v>
       </c>
       <c r="N328" s="2" t="s">
@@ -23969,7 +23969,7 @@
       </c>
       <c r="K332" s="2"/>
       <c r="L332" s="4"/>
-      <c r="M332" s="2" t="s">
+      <c r="M332" s="3" t="s">
         <v>86</v>
       </c>
       <c r="N332" s="2" t="s">
@@ -24115,7 +24115,7 @@
       </c>
       <c r="K335" s="2"/>
       <c r="L335" s="4"/>
-      <c r="M335" s="2" t="s">
+      <c r="M335" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N335" s="2" t="s">
@@ -24485,7 +24485,7 @@
       </c>
       <c r="K342" s="2"/>
       <c r="L342" s="4"/>
-      <c r="M342" s="2" t="s">
+      <c r="M342" s="3" t="s">
         <v>87</v>
       </c>
       <c r="N342" s="2" t="s">
@@ -24631,7 +24631,7 @@
       </c>
       <c r="K345" s="2"/>
       <c r="L345" s="4"/>
-      <c r="M345" s="2" t="s">
+      <c r="M345" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N345" s="2" t="s">
@@ -25003,7 +25003,7 @@
         <v>1109</v>
       </c>
       <c r="L352" s="4"/>
-      <c r="M352" s="2" t="s">
+      <c r="M352" s="3" t="s">
         <v>88</v>
       </c>
       <c r="N352" s="2" t="s">
@@ -25151,7 +25151,7 @@
       </c>
       <c r="K355" s="2"/>
       <c r="L355" s="4"/>
-      <c r="M355" s="2" t="s">
+      <c r="M355" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N355" s="2" t="s">
@@ -25307,7 +25307,7 @@
         <v>1110</v>
       </c>
       <c r="L358" s="4"/>
-      <c r="M358" s="2" t="s">
+      <c r="M358" s="3" t="s">
         <v>89</v>
       </c>
       <c r="N358" s="2" t="s">
@@ -25455,7 +25455,7 @@
       </c>
       <c r="K361" s="2"/>
       <c r="L361" s="4"/>
-      <c r="M361" s="2" t="s">
+      <c r="M361" s="3" t="s">
         <v>62</v>
       </c>
       <c r="N361" s="2" t="s">
@@ -25617,7 +25617,7 @@
       </c>
       <c r="K364" s="2"/>
       <c r="L364" s="4"/>
-      <c r="M364" s="2" t="s">
+      <c r="M364" s="3" t="s">
         <v>89</v>
       </c>
       <c r="N364" s="2" t="s">
@@ -25829,7 +25829,7 @@
       </c>
       <c r="K368" s="2"/>
       <c r="L368" s="4"/>
-      <c r="M368" s="2" t="s">
+      <c r="M368" s="3" t="s">
         <v>90</v>
       </c>
       <c r="N368" s="2" t="s">
@@ -26025,7 +26025,7 @@
       </c>
       <c r="K372" s="2"/>
       <c r="L372" s="4"/>
-      <c r="M372" s="2" t="s">
+      <c r="M372" s="3" t="s">
         <v>60</v>
       </c>
       <c r="N372" s="2" t="s">
@@ -26223,7 +26223,7 @@
         <v>1111</v>
       </c>
       <c r="L376" s="4"/>
-      <c r="M376" s="2" t="s">
+      <c r="M376" s="3" t="s">
         <v>91</v>
       </c>
       <c r="N376" s="2" t="s">
@@ -26371,7 +26371,7 @@
       </c>
       <c r="K379" s="2"/>
       <c r="L379" s="4"/>
-      <c r="M379" s="2" t="s">
+      <c r="M379" s="3" t="s">
         <v>92</v>
       </c>
       <c r="N379" s="2" t="s">
@@ -26533,7 +26533,7 @@
       </c>
       <c r="K382" s="2"/>
       <c r="L382" s="4"/>
-      <c r="M382" s="2" t="s">
+      <c r="M382" s="3" t="s">
         <v>93</v>
       </c>
       <c r="N382" s="2" t="s">
@@ -26693,7 +26693,7 @@
         <v>1112</v>
       </c>
       <c r="L385" s="4"/>
-      <c r="M385" s="2" t="s">
+      <c r="M385" s="3" t="s">
         <v>94</v>
       </c>
       <c r="N385" s="2" t="s">
@@ -26953,7 +26953,7 @@
       </c>
       <c r="K390" s="2"/>
       <c r="L390" s="4"/>
-      <c r="M390" s="2" t="s">
+      <c r="M390" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N390" s="2" t="s">
@@ -27099,7 +27099,7 @@
       </c>
       <c r="K393" s="2"/>
       <c r="L393" s="4"/>
-      <c r="M393" s="2" t="s">
+      <c r="M393" s="3" t="s">
         <v>66</v>
       </c>
       <c r="N393" s="2" t="s">
@@ -27253,7 +27253,7 @@
       </c>
       <c r="K396" s="2"/>
       <c r="L396" s="4"/>
-      <c r="M396" s="2" t="s">
+      <c r="M396" s="3" t="s">
         <v>95</v>
       </c>
       <c r="N396" s="2" t="s">
@@ -27509,7 +27509,7 @@
         <v>1114</v>
       </c>
       <c r="L401" s="4"/>
-      <c r="M401" s="2" t="s">
+      <c r="M401" s="3" t="s">
         <v>96</v>
       </c>
       <c r="N401" s="2" t="s">
@@ -27657,7 +27657,7 @@
       </c>
       <c r="K404" s="2"/>
       <c r="L404" s="4"/>
-      <c r="M404" s="2" t="s">
+      <c r="M404" s="3" t="s">
         <v>92</v>
       </c>
       <c r="N404" s="2" t="s">
@@ -27819,7 +27819,7 @@
       </c>
       <c r="K407" s="2"/>
       <c r="L407" s="4"/>
-      <c r="M407" s="2" t="s">
+      <c r="M407" s="3" t="s">
         <v>96</v>
       </c>
       <c r="N407" s="2" t="s">
@@ -28035,7 +28035,7 @@
       </c>
       <c r="K411" s="2"/>
       <c r="L411" s="4"/>
-      <c r="M411" s="2" t="s">
+      <c r="M411" s="3" t="s">
         <v>97</v>
       </c>
       <c r="N411" s="2" t="s">
@@ -28181,7 +28181,7 @@
       </c>
       <c r="K414" s="2"/>
       <c r="L414" s="4"/>
-      <c r="M414" s="2" t="s">
+      <c r="M414" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N414" s="2" t="s">
@@ -28335,7 +28335,7 @@
       </c>
       <c r="K417" s="2"/>
       <c r="L417" s="4"/>
-      <c r="M417" s="2" t="s">
+      <c r="M417" s="3" t="s">
         <v>98</v>
       </c>
       <c r="N417" s="2" t="s">
@@ -28481,7 +28481,7 @@
       </c>
       <c r="K420" s="2"/>
       <c r="L420" s="4"/>
-      <c r="M420" s="2" t="s">
+      <c r="M420" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N420" s="2" t="s">
@@ -28635,7 +28635,7 @@
       </c>
       <c r="K423" s="2"/>
       <c r="L423" s="4"/>
-      <c r="M423" s="2" t="s">
+      <c r="M423" s="3" t="s">
         <v>99</v>
       </c>
       <c r="N423" s="2" t="s">
@@ -28781,7 +28781,7 @@
       </c>
       <c r="K426" s="2"/>
       <c r="L426" s="4"/>
-      <c r="M426" s="2" t="s">
+      <c r="M426" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N426" s="2" t="s">
@@ -28937,7 +28937,7 @@
         <v>1116</v>
       </c>
       <c r="L429" s="4"/>
-      <c r="M429" s="2" t="s">
+      <c r="M429" s="3" t="s">
         <v>100</v>
       </c>
       <c r="N429" s="2" t="s">
@@ -29085,7 +29085,7 @@
       </c>
       <c r="K432" s="2"/>
       <c r="L432" s="4"/>
-      <c r="M432" s="2" t="s">
+      <c r="M432" s="3" t="s">
         <v>101</v>
       </c>
       <c r="N432" s="2" t="s">
@@ -29249,7 +29249,7 @@
         <v>1117</v>
       </c>
       <c r="L435" s="4"/>
-      <c r="M435" s="2" t="s">
+      <c r="M435" s="3" t="s">
         <v>102</v>
       </c>
       <c r="N435" s="2" t="s">
@@ -29415,7 +29415,7 @@
         <v>1118</v>
       </c>
       <c r="L438" s="4"/>
-      <c r="M438" s="2" t="s">
+      <c r="M438" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N438" s="2" t="s">
@@ -29581,7 +29581,7 @@
         <v>1119</v>
       </c>
       <c r="L441" s="4"/>
-      <c r="M441" s="2" t="s">
+      <c r="M441" s="3" t="s">
         <v>103</v>
       </c>
       <c r="N441" s="2" t="s">
@@ -29747,7 +29747,7 @@
         <v>1120</v>
       </c>
       <c r="L444" s="4"/>
-      <c r="M444" s="2" t="s">
+      <c r="M444" s="3" t="s">
         <v>104</v>
       </c>
       <c r="N444" s="2" t="s">
@@ -29909,7 +29909,7 @@
         <v>1121</v>
       </c>
       <c r="L447" s="4"/>
-      <c r="M447" s="2" t="s">
+      <c r="M447" s="3" t="s">
         <v>105</v>
       </c>
       <c r="N447" s="2" t="s">
@@ -30167,7 +30167,7 @@
         <v>1122</v>
       </c>
       <c r="L452" s="4"/>
-      <c r="M452" s="2" t="s">
+      <c r="M452" s="3" t="s">
         <v>106</v>
       </c>
       <c r="N452" s="2" t="s">
@@ -30425,7 +30425,7 @@
         <v>1123</v>
       </c>
       <c r="L457" s="4"/>
-      <c r="M457" s="2" t="s">
+      <c r="M457" s="3" t="s">
         <v>107</v>
       </c>
       <c r="N457" s="2" t="s">
@@ -30681,7 +30681,7 @@
       </c>
       <c r="K462" s="2"/>
       <c r="L462" s="4"/>
-      <c r="M462" s="2" t="s">
+      <c r="M462" s="3" t="s">
         <v>108</v>
       </c>
       <c r="N462" s="2" t="s">
@@ -30937,7 +30937,7 @@
         <v>1124</v>
       </c>
       <c r="L467" s="4"/>
-      <c r="M467" s="2" t="s">
+      <c r="M467" s="3" t="s">
         <v>109</v>
       </c>
       <c r="N467" s="2" t="s">
@@ -31207,7 +31207,7 @@
         <v>1125</v>
       </c>
       <c r="L472" s="4"/>
-      <c r="M472" s="2" t="s">
+      <c r="M472" s="3" t="s">
         <v>110</v>
       </c>
       <c r="N472" s="2" t="s">
@@ -31423,7 +31423,7 @@
         <v>1126</v>
       </c>
       <c r="L476" s="4"/>
-      <c r="M476" s="2" t="s">
+      <c r="M476" s="3" t="s">
         <v>111</v>
       </c>
       <c r="N476" s="2" t="s">
@@ -31639,7 +31639,7 @@
         <v>1127</v>
       </c>
       <c r="L480" s="4"/>
-      <c r="M480" s="2" t="s">
+      <c r="M480" s="3" t="s">
         <v>112</v>
       </c>
       <c r="N480" s="2" t="s">
@@ -31963,7 +31963,7 @@
         <v>1123</v>
       </c>
       <c r="L486" s="4"/>
-      <c r="M486" s="2" t="s">
+      <c r="M486" s="3" t="s">
         <v>113</v>
       </c>
       <c r="N486" s="2" t="s">
@@ -32233,7 +32233,7 @@
         <v>1128</v>
       </c>
       <c r="L491" s="4"/>
-      <c r="M491" s="2" t="s">
+      <c r="M491" s="3" t="s">
         <v>114</v>
       </c>
       <c r="N491" s="2" t="s">
@@ -32391,7 +32391,7 @@
         <v>1129</v>
       </c>
       <c r="L494" s="4"/>
-      <c r="M494" s="2" t="s">
+      <c r="M494" s="3" t="s">
         <v>115</v>
       </c>
       <c r="N494" s="2" t="s">
@@ -32695,7 +32695,7 @@
         <v>1130</v>
       </c>
       <c r="L500" s="4"/>
-      <c r="M500" s="2" t="s">
+      <c r="M500" s="3" t="s">
         <v>116</v>
       </c>
       <c r="N500" s="2" t="s">
@@ -32843,7 +32843,7 @@
       </c>
       <c r="K503" s="2"/>
       <c r="L503" s="4"/>
-      <c r="M503" s="2" t="s">
+      <c r="M503" s="3" t="s">
         <v>117</v>
       </c>
       <c r="N503" s="2" t="s">
@@ -33001,7 +33001,7 @@
       </c>
       <c r="K506" s="2"/>
       <c r="L506" s="4"/>
-      <c r="M506" s="2" t="s">
+      <c r="M506" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N506" s="2" t="s">
@@ -33147,7 +33147,7 @@
       </c>
       <c r="K509" s="2"/>
       <c r="L509" s="4"/>
-      <c r="M509" s="2" t="s">
+      <c r="M509" s="3" t="s">
         <v>118</v>
       </c>
       <c r="N509" s="2" t="s">
@@ -33359,7 +33359,7 @@
       </c>
       <c r="K513" s="2"/>
       <c r="L513" s="4"/>
-      <c r="M513" s="2" t="s">
+      <c r="M513" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N513" s="2" t="s">
@@ -33505,7 +33505,7 @@
       </c>
       <c r="K516" s="2"/>
       <c r="L516" s="4"/>
-      <c r="M516" s="2" t="s">
+      <c r="M516" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N516" s="2" t="s">
@@ -33827,7 +33827,7 @@
         <v>1131</v>
       </c>
       <c r="L522" s="4"/>
-      <c r="M522" s="2" t="s">
+      <c r="M522" s="3" t="s">
         <v>119</v>
       </c>
       <c r="N522" s="2" t="s">
@@ -33975,7 +33975,7 @@
       </c>
       <c r="K525" s="2"/>
       <c r="L525" s="4"/>
-      <c r="M525" s="2" t="s">
+      <c r="M525" s="3" t="s">
         <v>117</v>
       </c>
       <c r="N525" s="2" t="s">
@@ -34137,7 +34137,7 @@
       </c>
       <c r="K528" s="2"/>
       <c r="L528" s="4"/>
-      <c r="M528" s="2" t="s">
+      <c r="M528" s="3" t="s">
         <v>119</v>
       </c>
       <c r="N528" s="2" t="s">
@@ -34349,7 +34349,7 @@
       </c>
       <c r="K532" s="2"/>
       <c r="L532" s="4"/>
-      <c r="M532" s="2" t="s">
+      <c r="M532" s="3" t="s">
         <v>90</v>
       </c>
       <c r="N532" s="2" t="s">
@@ -34599,7 +34599,7 @@
       </c>
       <c r="K537" s="2"/>
       <c r="L537" s="4"/>
-      <c r="M537" s="2" t="s">
+      <c r="M537" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N537" s="2" t="s">
@@ -34953,7 +34953,7 @@
       </c>
       <c r="K544" s="2"/>
       <c r="L544" s="4"/>
-      <c r="M544" s="2" t="s">
+      <c r="M544" s="3" t="s">
         <v>60</v>
       </c>
       <c r="N544" s="2" t="s">
@@ -35151,7 +35151,7 @@
         <v>1132</v>
       </c>
       <c r="L548" s="4"/>
-      <c r="M548" s="2" t="s">
+      <c r="M548" s="3" t="s">
         <v>120</v>
       </c>
       <c r="N548" s="2" t="s">
@@ -35299,7 +35299,7 @@
       </c>
       <c r="K551" s="2"/>
       <c r="L551" s="4"/>
-      <c r="M551" s="2" t="s">
+      <c r="M551" s="3" t="s">
         <v>121</v>
       </c>
       <c r="N551" s="2" t="s">
@@ -35463,7 +35463,7 @@
         <v>1118</v>
       </c>
       <c r="L554" s="4"/>
-      <c r="M554" s="2" t="s">
+      <c r="M554" s="3" t="s">
         <v>122</v>
       </c>
       <c r="N554" s="2" t="s">
@@ -35623,7 +35623,7 @@
       </c>
       <c r="K557" s="2"/>
       <c r="L557" s="4"/>
-      <c r="M557" s="2" t="s">
+      <c r="M557" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N557" s="2" t="s">
@@ -35769,7 +35769,7 @@
       </c>
       <c r="K560" s="2"/>
       <c r="L560" s="4"/>
-      <c r="M560" s="2" t="s">
+      <c r="M560" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N560" s="2" t="s">
@@ -36209,7 +36209,7 @@
       </c>
       <c r="K568" s="2"/>
       <c r="L568" s="4"/>
-      <c r="M568" s="2" t="s">
+      <c r="M568" s="3" t="s">
         <v>123</v>
       </c>
       <c r="N568" s="2" t="s">
@@ -36369,7 +36369,7 @@
         <v>1134</v>
       </c>
       <c r="L571" s="4"/>
-      <c r="M571" s="2" t="s">
+      <c r="M571" s="3" t="s">
         <v>124</v>
       </c>
       <c r="N571" s="2" t="s">
@@ -36525,7 +36525,7 @@
       </c>
       <c r="K574" s="2"/>
       <c r="L574" s="4"/>
-      <c r="M574" s="2" t="s">
+      <c r="M574" s="3" t="s">
         <v>125</v>
       </c>
       <c r="N574" s="2" t="s">
@@ -36933,7 +36933,7 @@
       </c>
       <c r="K582" s="2"/>
       <c r="L582" s="4"/>
-      <c r="M582" s="2" t="s">
+      <c r="M582" s="3" t="s">
         <v>126</v>
       </c>
       <c r="N582" s="2" t="s">
@@ -37193,7 +37193,7 @@
         <v>1136</v>
       </c>
       <c r="L587" s="4"/>
-      <c r="M587" s="2" t="s">
+      <c r="M587" s="3" t="s">
         <v>127</v>
       </c>
       <c r="N587" s="2" t="s">
@@ -37505,7 +37505,7 @@
         <v>1137</v>
       </c>
       <c r="L593" s="4"/>
-      <c r="M593" s="2" t="s">
+      <c r="M593" s="3" t="s">
         <v>128</v>
       </c>
       <c r="N593" s="2" t="s">
@@ -37653,7 +37653,7 @@
       </c>
       <c r="K596" s="2"/>
       <c r="L596" s="4"/>
-      <c r="M596" s="2" t="s">
+      <c r="M596" s="3" t="s">
         <v>129</v>
       </c>
       <c r="N596" s="2" t="s">
@@ -37817,7 +37817,7 @@
         <v>1138</v>
       </c>
       <c r="L599" s="4"/>
-      <c r="M599" s="2" t="s">
+      <c r="M599" s="3" t="s">
         <v>130</v>
       </c>
       <c r="N599" s="2" t="s">
@@ -37981,7 +37981,7 @@
       </c>
       <c r="K602" s="2"/>
       <c r="L602" s="4"/>
-      <c r="M602" s="2" t="s">
+      <c r="M602" s="3" t="s">
         <v>128</v>
       </c>
       <c r="N602" s="2" t="s">
@@ -38197,7 +38197,7 @@
       </c>
       <c r="K606" s="2"/>
       <c r="L606" s="4"/>
-      <c r="M606" s="2" t="s">
+      <c r="M606" s="3" t="s">
         <v>131</v>
       </c>
       <c r="N606" s="2" t="s">
@@ -38343,7 +38343,7 @@
       </c>
       <c r="K609" s="2"/>
       <c r="L609" s="4"/>
-      <c r="M609" s="2" t="s">
+      <c r="M609" s="3" t="s">
         <v>132</v>
       </c>
       <c r="N609" s="2" t="s">
@@ -38559,7 +38559,7 @@
       </c>
       <c r="K613" s="2"/>
       <c r="L613" s="4"/>
-      <c r="M613" s="2" t="s">
+      <c r="M613" s="3" t="s">
         <v>133</v>
       </c>
       <c r="N613" s="2" t="s">
@@ -38773,7 +38773,7 @@
         <v>1138</v>
       </c>
       <c r="L617" s="4"/>
-      <c r="M617" s="2" t="s">
+      <c r="M617" s="3" t="s">
         <v>77</v>
       </c>
       <c r="N617" s="2" t="s">
@@ -39035,7 +39035,7 @@
         <v>1140</v>
       </c>
       <c r="L622" s="4"/>
-      <c r="M622" s="2" t="s">
+      <c r="M622" s="3" t="s">
         <v>134</v>
       </c>
       <c r="N622" s="2" t="s">
@@ -39183,7 +39183,7 @@
       </c>
       <c r="K625" s="2"/>
       <c r="L625" s="4"/>
-      <c r="M625" s="2" t="s">
+      <c r="M625" s="3" t="s">
         <v>129</v>
       </c>
       <c r="N625" s="2" t="s">
@@ -39347,7 +39347,7 @@
         <v>1141</v>
       </c>
       <c r="L628" s="4"/>
-      <c r="M628" s="2" t="s">
+      <c r="M628" s="3" t="s">
         <v>135</v>
       </c>
       <c r="N628" s="2" t="s">
@@ -39503,7 +39503,7 @@
       </c>
       <c r="K631" s="2"/>
       <c r="L631" s="4"/>
-      <c r="M631" s="2" t="s">
+      <c r="M631" s="3" t="s">
         <v>136</v>
       </c>
       <c r="N631" s="2" t="s">
@@ -40355,7 +40355,7 @@
       </c>
       <c r="K647" s="2"/>
       <c r="L647" s="4"/>
-      <c r="M647" s="2" t="s">
+      <c r="M647" s="3" t="s">
         <v>137</v>
       </c>
       <c r="N647" s="2" t="s">
@@ -40515,7 +40515,7 @@
         <v>1143</v>
       </c>
       <c r="L650" s="4"/>
-      <c r="M650" s="2" t="s">
+      <c r="M650" s="3" t="s">
         <v>138</v>
       </c>
       <c r="N650" s="2" t="s">
@@ -40729,7 +40729,7 @@
       </c>
       <c r="K654" s="2"/>
       <c r="L654" s="4"/>
-      <c r="M654" s="2" t="s">
+      <c r="M654" s="3" t="s">
         <v>139</v>
       </c>
       <c r="N654" s="2" t="s">
@@ -40887,7 +40887,7 @@
       </c>
       <c r="K657" s="2"/>
       <c r="L657" s="4"/>
-      <c r="M657" s="2" t="s">
+      <c r="M657" s="3" t="s">
         <v>140</v>
       </c>
       <c r="N657" s="2" t="s">
@@ -41099,7 +41099,7 @@
       </c>
       <c r="K661" s="2"/>
       <c r="L661" s="4"/>
-      <c r="M661" s="2" t="s">
+      <c r="M661" s="3" t="s">
         <v>141</v>
       </c>
       <c r="N661" s="2" t="s">
@@ -41455,7 +41455,7 @@
         <v>1144</v>
       </c>
       <c r="L668" s="4"/>
-      <c r="M668" s="2" t="s">
+      <c r="M668" s="3" t="s">
         <v>142</v>
       </c>
       <c r="N668" s="2" t="s">
@@ -41759,7 +41759,7 @@
         <v>1145</v>
       </c>
       <c r="L674" s="4"/>
-      <c r="M674" s="2" t="s">
+      <c r="M674" s="3" t="s">
         <v>143</v>
       </c>
       <c r="N674" s="2" t="s">
@@ -41909,7 +41909,7 @@
         <v>1146</v>
       </c>
       <c r="L677" s="4"/>
-      <c r="M677" s="2" t="s">
+      <c r="M677" s="3" t="s">
         <v>144</v>
       </c>
       <c r="N677" s="2" t="s">
@@ -42129,7 +42129,7 @@
         <v>1140</v>
       </c>
       <c r="L681" s="4"/>
-      <c r="M681" s="2" t="s">
+      <c r="M681" s="3" t="s">
         <v>129</v>
       </c>
       <c r="N681" s="2" t="s">
@@ -42295,7 +42295,7 @@
         <v>1148</v>
       </c>
       <c r="L684" s="4"/>
-      <c r="M684" s="2" t="s">
+      <c r="M684" s="3" t="s">
         <v>130</v>
       </c>
       <c r="N684" s="2" t="s">
@@ -42461,7 +42461,7 @@
         <v>1149</v>
       </c>
       <c r="L687" s="4"/>
-      <c r="M687" s="2" t="s">
+      <c r="M687" s="3" t="s">
         <v>145</v>
       </c>
       <c r="N687" s="2" t="s">
@@ -42621,7 +42621,7 @@
       </c>
       <c r="K690" s="2"/>
       <c r="L690" s="4"/>
-      <c r="M690" s="2" t="s">
+      <c r="M690" s="3" t="s">
         <v>146</v>
       </c>
       <c r="N690" s="2" t="s">
@@ -42839,7 +42839,7 @@
         <v>1151</v>
       </c>
       <c r="L694" s="4"/>
-      <c r="M694" s="2" t="s">
+      <c r="M694" s="3" t="s">
         <v>84</v>
       </c>
       <c r="N694" s="2" t="s">
@@ -43251,7 +43251,7 @@
         <v>1152</v>
       </c>
       <c r="L702" s="4"/>
-      <c r="M702" s="2" t="s">
+      <c r="M702" s="3" t="s">
         <v>147</v>
       </c>
       <c r="N702" s="2" t="s">
@@ -43609,7 +43609,7 @@
         <v>1153</v>
       </c>
       <c r="L709" s="4"/>
-      <c r="M709" s="2" t="s">
+      <c r="M709" s="3" t="s">
         <v>148</v>
       </c>
       <c r="N709" s="2" t="s">
@@ -43809,7 +43809,7 @@
         <v>1154</v>
       </c>
       <c r="L713" s="4"/>
-      <c r="M713" s="2" t="s">
+      <c r="M713" s="3" t="s">
         <v>149</v>
       </c>
       <c r="N713" s="2" t="s">
@@ -43957,7 +43957,7 @@
       </c>
       <c r="K716" s="2"/>
       <c r="L716" s="4"/>
-      <c r="M716" s="2" t="s">
+      <c r="M716" s="3" t="s">
         <v>144</v>
       </c>
       <c r="N716" s="2" t="s">
@@ -44111,7 +44111,7 @@
       </c>
       <c r="K719" s="2"/>
       <c r="L719" s="4"/>
-      <c r="M719" s="2" t="s">
+      <c r="M719" s="3" t="s">
         <v>150</v>
       </c>
       <c r="N719" s="2" t="s">
@@ -44259,7 +44259,7 @@
         <v>1155</v>
       </c>
       <c r="L722" s="4"/>
-      <c r="M722" s="2" t="s">
+      <c r="M722" s="3" t="s">
         <v>137</v>
       </c>
       <c r="N722" s="2" t="s">
@@ -44419,7 +44419,7 @@
       </c>
       <c r="K725" s="2"/>
       <c r="L725" s="4"/>
-      <c r="M725" s="2" t="s">
+      <c r="M725" s="3" t="s">
         <v>151</v>
       </c>
       <c r="N725" s="2" t="s">
@@ -44741,7 +44741,7 @@
         <v>1157</v>
       </c>
       <c r="L731" s="4"/>
-      <c r="M731" s="2" t="s">
+      <c r="M731" s="3" t="s">
         <v>152</v>
       </c>
       <c r="N731" s="2" t="s">
@@ -44889,7 +44889,7 @@
       </c>
       <c r="K734" s="2"/>
       <c r="L734" s="4"/>
-      <c r="M734" s="2" t="s">
+      <c r="M734" s="3" t="s">
         <v>144</v>
       </c>
       <c r="N734" s="2" t="s">
@@ -45043,7 +45043,7 @@
       </c>
       <c r="K737" s="2"/>
       <c r="L737" s="4"/>
-      <c r="M737" s="2" t="s">
+      <c r="M737" s="3" t="s">
         <v>153</v>
       </c>
       <c r="N737" s="2" t="s">
@@ -45189,7 +45189,7 @@
       </c>
       <c r="K740" s="2"/>
       <c r="L740" s="4"/>
-      <c r="M740" s="2" t="s">
+      <c r="M740" s="3" t="s">
         <v>137</v>
       </c>
       <c r="N740" s="2" t="s">
@@ -45347,7 +45347,7 @@
       </c>
       <c r="K743" s="2"/>
       <c r="L743" s="4"/>
-      <c r="M743" s="2" t="s">
+      <c r="M743" s="3" t="s">
         <v>154</v>
       </c>
       <c r="N743" s="2" t="s">
@@ -45719,7 +45719,7 @@
         <v>1154</v>
       </c>
       <c r="L750" s="4"/>
-      <c r="M750" s="2" t="s">
+      <c r="M750" s="3" t="s">
         <v>155</v>
       </c>
       <c r="N750" s="2" t="s">
@@ -45867,7 +45867,7 @@
       </c>
       <c r="K753" s="2"/>
       <c r="L753" s="4"/>
-      <c r="M753" s="2" t="s">
+      <c r="M753" s="3" t="s">
         <v>144</v>
       </c>
       <c r="N753" s="2" t="s">
@@ -46021,7 +46021,7 @@
       </c>
       <c r="K756" s="2"/>
       <c r="L756" s="4"/>
-      <c r="M756" s="2" t="s">
+      <c r="M756" s="3" t="s">
         <v>156</v>
       </c>
       <c r="N756" s="2" t="s">
@@ -46167,7 +46167,7 @@
       </c>
       <c r="K759" s="2"/>
       <c r="L759" s="4"/>
-      <c r="M759" s="2" t="s">
+      <c r="M759" s="3" t="s">
         <v>137</v>
       </c>
       <c r="N759" s="2" t="s">
@@ -46325,7 +46325,7 @@
       </c>
       <c r="K762" s="2"/>
       <c r="L762" s="4"/>
-      <c r="M762" s="2" t="s">
+      <c r="M762" s="3" t="s">
         <v>157</v>
       </c>
       <c r="N762" s="2" t="s">
@@ -46481,7 +46481,7 @@
         <v>1154</v>
       </c>
       <c r="L765" s="4"/>
-      <c r="M765" s="2" t="s">
+      <c r="M765" s="3" t="s">
         <v>158</v>
       </c>
       <c r="N765" s="2" t="s">
@@ -46771,7 +46771,7 @@
       </c>
       <c r="K771" s="2"/>
       <c r="L771" s="4"/>
-      <c r="M771" s="2" t="s">
+      <c r="M771" s="3" t="s">
         <v>137</v>
       </c>
       <c r="N771" s="2" t="s">
@@ -46931,7 +46931,7 @@
         <v>1159</v>
       </c>
       <c r="L774" s="4"/>
-      <c r="M774" s="2" t="s">
+      <c r="M774" s="3" t="s">
         <v>159</v>
       </c>
       <c r="N774" s="2" t="s">
@@ -47079,7 +47079,7 @@
       </c>
       <c r="K777" s="2"/>
       <c r="L777" s="4"/>
-      <c r="M777" s="2" t="s">
+      <c r="M777" s="3" t="s">
         <v>135</v>
       </c>
       <c r="N777" s="2" t="s">
@@ -47237,7 +47237,7 @@
       </c>
       <c r="K780" s="2"/>
       <c r="L780" s="4"/>
-      <c r="M780" s="2" t="s">
+      <c r="M780" s="3" t="s">
         <v>62</v>
       </c>
       <c r="N780" s="2" t="s">
@@ -47395,7 +47395,7 @@
       </c>
       <c r="K783" s="2"/>
       <c r="L783" s="4"/>
-      <c r="M783" s="2" t="s">
+      <c r="M783" s="3" t="s">
         <v>160</v>
       </c>
       <c r="N783" s="2" t="s">
@@ -47541,7 +47541,7 @@
       </c>
       <c r="K786" s="2"/>
       <c r="L786" s="4"/>
-      <c r="M786" s="2" t="s">
+      <c r="M786" s="3" t="s">
         <v>137</v>
       </c>
       <c r="N786" s="2" t="s">
@@ -47701,7 +47701,7 @@
         <v>1160</v>
       </c>
       <c r="L789" s="4"/>
-      <c r="M789" s="2" t="s">
+      <c r="M789" s="3" t="s">
         <v>161</v>
       </c>
       <c r="N789" s="2" t="s">
@@ -47849,7 +47849,7 @@
       </c>
       <c r="K792" s="2"/>
       <c r="L792" s="4"/>
-      <c r="M792" s="2" t="s">
+      <c r="M792" s="3" t="s">
         <v>62</v>
       </c>
       <c r="N792" s="2" t="s">
@@ -48007,7 +48007,7 @@
       </c>
       <c r="K795" s="2"/>
       <c r="L795" s="4"/>
-      <c r="M795" s="2" t="s">
+      <c r="M795" s="3" t="s">
         <v>162</v>
       </c>
       <c r="N795" s="2" t="s">
@@ -48417,7 +48417,7 @@
         <v>1161</v>
       </c>
       <c r="L803" s="4"/>
-      <c r="M803" s="2" t="s">
+      <c r="M803" s="3" t="s">
         <v>163</v>
       </c>
       <c r="N803" s="2" t="s">
@@ -48565,7 +48565,7 @@
       </c>
       <c r="K806" s="2"/>
       <c r="L806" s="4"/>
-      <c r="M806" s="2" t="s">
+      <c r="M806" s="3" t="s">
         <v>62</v>
       </c>
       <c r="N806" s="2" t="s">
@@ -48723,7 +48723,7 @@
       </c>
       <c r="K809" s="2"/>
       <c r="L809" s="4"/>
-      <c r="M809" s="2" t="s">
+      <c r="M809" s="3" t="s">
         <v>162</v>
       </c>
       <c r="N809" s="2" t="s">
@@ -49131,7 +49131,7 @@
       </c>
       <c r="K817" s="2"/>
       <c r="L817" s="4"/>
-      <c r="M817" s="2" t="s">
+      <c r="M817" s="3" t="s">
         <v>164</v>
       </c>
       <c r="N817" s="2" t="s">
@@ -49553,7 +49553,7 @@
         <v>1163</v>
       </c>
       <c r="L825" s="4"/>
-      <c r="M825" s="2" t="s">
+      <c r="M825" s="3" t="s">
         <v>165</v>
       </c>
       <c r="N825" s="2" t="s">
@@ -49701,7 +49701,7 @@
       </c>
       <c r="K828" s="2"/>
       <c r="L828" s="4"/>
-      <c r="M828" s="2" t="s">
+      <c r="M828" s="3" t="s">
         <v>62</v>
       </c>
       <c r="N828" s="2" t="s">
@@ -49859,7 +49859,7 @@
       </c>
       <c r="K831" s="2"/>
       <c r="L831" s="4"/>
-      <c r="M831" s="2" t="s">
+      <c r="M831" s="3" t="s">
         <v>166</v>
       </c>
       <c r="N831" s="2" t="s">
@@ -50103,7 +50103,7 @@
         <v>1164</v>
       </c>
       <c r="L836" s="4"/>
-      <c r="M836" s="2" t="s">
+      <c r="M836" s="3" t="s">
         <v>167</v>
       </c>
       <c r="N836" s="2" t="s">
@@ -50417,7 +50417,7 @@
       </c>
       <c r="K842" s="2"/>
       <c r="L842" s="4"/>
-      <c r="M842" s="2" t="s">
+      <c r="M842" s="3" t="s">
         <v>62</v>
       </c>
       <c r="N842" s="2" t="s">
@@ -50577,7 +50577,7 @@
         <v>1164</v>
       </c>
       <c r="L845" s="4"/>
-      <c r="M845" s="2" t="s">
+      <c r="M845" s="3" t="s">
         <v>168</v>
       </c>
       <c r="N845" s="2" t="s">
@@ -51111,7 +51111,7 @@
       </c>
       <c r="K855" s="2"/>
       <c r="L855" s="4"/>
-      <c r="M855" s="2" t="s">
+      <c r="M855" s="3" t="s">
         <v>62</v>
       </c>
       <c r="N855" s="2" t="s">
@@ -51271,7 +51271,7 @@
         <v>1166</v>
       </c>
       <c r="L858" s="4"/>
-      <c r="M858" s="2" t="s">
+      <c r="M858" s="3" t="s">
         <v>169</v>
       </c>
       <c r="N858" s="2" t="s">
@@ -51585,7 +51585,7 @@
       </c>
       <c r="K864" s="2"/>
       <c r="L864" s="4"/>
-      <c r="M864" s="2" t="s">
+      <c r="M864" s="3" t="s">
         <v>121</v>
       </c>
       <c r="N864" s="2" t="s">
@@ -51745,7 +51745,7 @@
         <v>1166</v>
       </c>
       <c r="L867" s="4"/>
-      <c r="M867" s="2" t="s">
+      <c r="M867" s="3" t="s">
         <v>170</v>
       </c>
       <c r="N867" s="2" t="s">
@@ -52275,7 +52275,7 @@
       </c>
       <c r="K877" s="2"/>
       <c r="L877" s="4"/>
-      <c r="M877" s="2" t="s">
+      <c r="M877" s="3" t="s">
         <v>171</v>
       </c>
       <c r="N877" s="2" t="s">
@@ -52587,7 +52587,7 @@
       </c>
       <c r="K883" s="2"/>
       <c r="L883" s="4"/>
-      <c r="M883" s="2" t="s">
+      <c r="M883" s="3" t="s">
         <v>62</v>
       </c>
       <c r="N883" s="2" t="s">
@@ -52745,7 +52745,7 @@
       </c>
       <c r="K886" s="2"/>
       <c r="L886" s="4"/>
-      <c r="M886" s="2" t="s">
+      <c r="M886" s="3" t="s">
         <v>172</v>
       </c>
       <c r="N886" s="2" t="s">
@@ -53277,7 +53277,7 @@
       </c>
       <c r="K896" s="2"/>
       <c r="L896" s="4"/>
-      <c r="M896" s="2" t="s">
+      <c r="M896" s="3" t="s">
         <v>62</v>
       </c>
       <c r="N896" s="2" t="s">
@@ -53437,7 +53437,7 @@
         <v>1167</v>
       </c>
       <c r="L899" s="4"/>
-      <c r="M899" s="2" t="s">
+      <c r="M899" s="3" t="s">
         <v>173</v>
       </c>
       <c r="N899" s="2" t="s">
@@ -53859,7 +53859,7 @@
       </c>
       <c r="K907" s="2"/>
       <c r="L907" s="4"/>
-      <c r="M907" s="2" t="s">
+      <c r="M907" s="3" t="s">
         <v>129</v>
       </c>
       <c r="N907" s="2" t="s">
@@ -54019,7 +54019,7 @@
         <v>1169</v>
       </c>
       <c r="L910" s="4"/>
-      <c r="M910" s="2" t="s">
+      <c r="M910" s="3" t="s">
         <v>174</v>
       </c>
       <c r="N910" s="2" t="s">
@@ -54553,7 +54553,7 @@
       </c>
       <c r="K920" s="2"/>
       <c r="L920" s="4"/>
-      <c r="M920" s="2" t="s">
+      <c r="M920" s="3" t="s">
         <v>129</v>
       </c>
       <c r="N920" s="2" t="s">
@@ -54713,7 +54713,7 @@
       </c>
       <c r="K923" s="2"/>
       <c r="L923" s="4"/>
-      <c r="M923" s="2" t="s">
+      <c r="M923" s="3" t="s">
         <v>175</v>
       </c>
       <c r="N923" s="2"/>
